--- a/dumps/Stocks/Triveni Turbine Limited.xlsx
+++ b/dumps/Stocks/Triveni Turbine Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,39 +574,78 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>490.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2470.05</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252611972212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2.4677</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.8282</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>46066</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>489.35</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>4928.01</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>CN#252611910666</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>4.9431</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>29.5686</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f>Index!$C$2</f>
         <v/>
       </c>
